--- a/data/income_statement/2digits/size/59_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/59_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>59-Motion picture, video and television programme production, sound recording and music publishing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>59-Motion picture, video and television programme production, sound recording and music publishing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,644 +841,729 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>557310.173</v>
+        <v>579572.13238</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>628228.53133</v>
+        <v>652359.7305400001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>684437.3249000001</v>
+        <v>707450.43011</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>709327.4770900001</v>
+        <v>739472.9674300001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1088513.71666</v>
+        <v>1157566.62853</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1171634.02472</v>
+        <v>1243527.29988</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1423992.88536</v>
+        <v>1517961.90984</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1435528.90507</v>
+        <v>1475933.46348</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1631907.6846</v>
+        <v>1735126.43221</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2539497.41149</v>
+        <v>2536932.92749</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2507771.00399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2675994.14661</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2863696.409</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>536835.1673</v>
+        <v>558093.23067</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>607996.9506</v>
+        <v>631933.84081</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>643815.59691</v>
+        <v>665142.04547</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>660770.05218</v>
+        <v>689178.6561899999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1028969.09359</v>
+        <v>1098837.35026</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1110242.36093</v>
+        <v>1185511.76176</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1357397.8682</v>
+        <v>1454192.88758</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1354990.25215</v>
+        <v>1396328.49531</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1523876.38558</v>
+        <v>1621913.75256</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2325421.71104</v>
+        <v>2321453.0015</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2208129.67414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2361002.34631</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2534668.607</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>6868.96724</v>
+        <v>7219.72761</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>6971.777869999999</v>
+        <v>7093.06977</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>20763.32914</v>
+        <v>20137.96491</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>22857.5996</v>
+        <v>23263.20695</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>25690.04983</v>
+        <v>24466.0678</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>35255.7496</v>
+        <v>33144.60461</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>41034.39806</v>
+        <v>39874.88171</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>48683.17352</v>
+        <v>48729.77215</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>74197.40315000001</v>
+        <v>77065.71914999999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>169299.68129</v>
+        <v>170722.69265</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>246577.67082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>261325.22621</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>277167.979</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>13606.03846</v>
+        <v>14259.1741</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>13259.80286</v>
+        <v>13332.81996</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>19858.39885</v>
+        <v>22170.41973</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>25699.82531</v>
+        <v>27031.10429</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>33854.57324000001</v>
+        <v>34263.21047</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>26135.91419</v>
+        <v>24870.93351</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>25560.6191</v>
+        <v>23894.14055</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>31855.4794</v>
+        <v>30875.19602</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>33833.89587</v>
+        <v>36146.9605</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>44776.01916</v>
+        <v>44757.23334</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>53063.65903</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>53666.57408999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>51859.823</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>7969.63729</v>
+        <v>8215.052949999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>4447.07883</v>
+        <v>4621.694439999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>5604.91536</v>
+        <v>5528.09925</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>8338.92087</v>
+        <v>8117.73294</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>8020.48559</v>
+        <v>9870.700359999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>11074.89298</v>
+        <v>12326.52262</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>12456.93661</v>
+        <v>13648.98654</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>12026.11436</v>
+        <v>13408.47741</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>10752.96954</v>
+        <v>11144.38199</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>30150.4419</v>
+        <v>26853.04884</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>34594.33412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>39841.90453</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>51594.872</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>7580.67882</v>
+        <v>7720.52068</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>4284.62816</v>
+        <v>4450.41228</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4835.85853</v>
+        <v>4752.18811</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>8111.37849</v>
+        <v>7903.899040000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>6775.971049999999</v>
+        <v>8720.0478</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>10612.1362</v>
+        <v>11529.80538</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>11383.19243</v>
+        <v>12207.24801</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>10773.11838</v>
+        <v>10854.22238</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>9304.58814</v>
+        <v>9679.97494</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>26486.44782</v>
+        <v>23942.66506</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>30488.38468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>35736.19444</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>50018.415</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>352.6671000000001</v>
+        <v>445.55106</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>158.29016</v>
+        <v>169.69016</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>597.3548499999999</v>
+        <v>607.1010699999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>116.51413</v>
+        <v>107.76482</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1057.15945</v>
+        <v>1024.49732</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>365.54106</v>
+        <v>358.00419</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>750.93055</v>
+        <v>767.62974</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>978.4049299999999</v>
+        <v>1814.14615</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>989.4405399999999</v>
+        <v>988.33351</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1322.5533</v>
+        <v>568.11629</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>106.49203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>106.25268</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>48.672</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>36.29136999999999</v>
+        <v>48.98121</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>4.16051</v>
+        <v>1.592</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>171.70198</v>
+        <v>168.81007</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>111.02825</v>
+        <v>106.06908</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>187.35509</v>
+        <v>126.15524</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>97.21572</v>
+        <v>438.71305</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>322.81363</v>
+        <v>674.10879</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>274.59105</v>
+        <v>740.10888</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>458.94086</v>
+        <v>476.07354</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2341.44078</v>
+        <v>2342.26749</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>3999.45741</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>1527.785</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>549340.5357100001</v>
+        <v>571357.07943</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>623781.4525</v>
+        <v>647738.0361</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>678832.4095399999</v>
+        <v>701922.33086</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>700988.55622</v>
+        <v>731355.2344900001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1080493.23107</v>
+        <v>1147695.92817</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1160559.13174</v>
+        <v>1231200.77726</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1411535.94875</v>
+        <v>1504312.9233</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1423502.79071</v>
+        <v>1462524.98607</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1621154.71506</v>
+        <v>1723982.05022</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2509346.96959</v>
+        <v>2510079.87865</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2473176.66987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2636152.24208</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2812101.537</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>444980.12744</v>
+        <v>458825.20883</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>484442.41296</v>
+        <v>500020.28848</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>516866.46618</v>
+        <v>532118.5261799999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>553025.7466600001</v>
+        <v>587193.64449</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>848758.7204599999</v>
+        <v>898471.7717200001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>930900.25877</v>
+        <v>978582.3474499999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1140823.98253</v>
+        <v>1193139.06143</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1166883.01529</v>
+        <v>1191512.4816</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1326379.43156</v>
+        <v>1406417.83353</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2005003.71393</v>
+        <v>2002333.64677</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2001598.49884</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2112797.33548</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2282329.364</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>12756.04006</v>
+        <v>13803.62296</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>18230.21232</v>
+        <v>21259.84815</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>11147.48507</v>
+        <v>9250.256089999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>22032.43453</v>
+        <v>21132.92047</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>12677.66204</v>
+        <v>10420.62879</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>19761.73722</v>
+        <v>20258.93732</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>31289.67783</v>
+        <v>29422.54135</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>18117.81204</v>
+        <v>16623.17811</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>34062.30102000001</v>
+        <v>31878.11905</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>19267.22505</v>
+        <v>36606.55701</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>23392.44314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>24970.33086</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>33557.488</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>30612.57341</v>
+        <v>36304.72887000001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>30214.60134</v>
+        <v>31035.22414</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>44267.66653</v>
+        <v>46706.77905</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>32095.75304</v>
+        <v>31802.39783</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>44380.94206</v>
+        <v>56185.42277</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>81058.51783</v>
+        <v>86570.72331</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>85782.10979</v>
+        <v>89340.22792999999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>78687.88785</v>
+        <v>77567.29625</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>104388.36529</v>
+        <v>109406.67858</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>109379.18736</v>
+        <v>106537.76887</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>113726.21051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>123727.44809</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>202027.357</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>398467.5008</v>
+        <v>408232.47993</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>435522.64117</v>
+        <v>447618.19168</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>460960.04982</v>
+        <v>473298.29147</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>495069.94119</v>
+        <v>528909.89461</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>787431.3797700001</v>
+        <v>826864.50335</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>827614.0019500001</v>
+        <v>869410.71473</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1021317.47434</v>
+        <v>1072943.57577</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1068646.72098</v>
+        <v>1096105.53982</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1180734.95702</v>
+        <v>1256118.00767</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1872437.36417</v>
+        <v>1855269.38354</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1860748.15843</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1959531.29606</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2039542.059</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3144.01317</v>
+        <v>484.37707</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>474.95813</v>
+        <v>107.02451</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>491.26476</v>
+        <v>2863.19957</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3827.6179</v>
+        <v>5348.43158</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>4268.73659</v>
+        <v>5001.216810000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2466.00177</v>
+        <v>2341.97209</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2434.72057</v>
+        <v>1432.71638</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1430.59442</v>
+        <v>1216.46742</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>7193.808230000001</v>
+        <v>9015.02823</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>3919.93735</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3731.68676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4568.26047</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>7202.46</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>104360.40827</v>
+        <v>112531.8706</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>139339.03954</v>
+        <v>147717.74762</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>161965.94336</v>
+        <v>169803.80468</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>147962.80956</v>
+        <v>144161.59</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>231734.51061</v>
+        <v>249224.15645</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>229658.87297</v>
+        <v>252618.42981</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>270711.9662199999</v>
+        <v>311173.86187</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>256619.77542</v>
+        <v>271012.50447</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>294775.2835</v>
+        <v>317564.21669</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>504343.25566</v>
+        <v>507746.23188</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>471578.17103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>523354.9066</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>529772.173</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>86193.38112000001</v>
+        <v>88422.57742999999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>105316.94933</v>
+        <v>108377.82174</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>120415.43289</v>
+        <v>123421.00824</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>113528.91779</v>
+        <v>108764.05498</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>187081.17789</v>
+        <v>189736.83096</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>190849.58985</v>
+        <v>191757.91538</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>213136.78054</v>
+        <v>236068.60382</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>205179.59649</v>
+        <v>214627.3523</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>247108.6327</v>
+        <v>254963.37393</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>428881.82057</v>
+        <v>422260.95196</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>405677.85364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>407983.6842200001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>396258.651</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>194.14625</v>
+        <v>1037.30609</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>485.58521</v>
+        <v>651.37101</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>439.09742</v>
@@ -1592,13 +1578,13 @@
         <v>551.41615</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>7680.08211</v>
+        <v>7602.43308</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>895.68064</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>447.00407</v>
+        <v>367.7359</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>0</v>
@@ -1606,173 +1592,198 @@
       <c r="M21" s="48" t="n">
         <v>2444.89749</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>5327.665</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>12645.15575</v>
+        <v>13266.84034</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>16940.85536</v>
+        <v>17875.16454</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>14193.32968</v>
+        <v>14387.69887</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>11413.5676</v>
+        <v>10647.16228</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>36070.12583</v>
+        <v>37620.42722</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>34973.80228</v>
+        <v>36815.49861</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>31788.40325</v>
+        <v>33509.9055</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>28857.6348</v>
+        <v>32781.2709</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>38902.68974</v>
+        <v>45003.60404999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>109198.94912</v>
+        <v>108647.35521</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>112662.2391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>118096.86422</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>91362.20600000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>73354.07912000001</v>
+        <v>74118.431</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>87890.50876000001</v>
+        <v>89851.28619</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>105783.00579</v>
+        <v>108594.21195</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>100667.73433</v>
+        <v>96669.27684000001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>150672.00156</v>
+        <v>151777.35324</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>155324.37142</v>
+        <v>154391.00062</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>173668.29518</v>
+        <v>194956.26524</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>175426.28105</v>
+        <v>180950.40076</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>207758.93889</v>
+        <v>209592.03398</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>319682.87145</v>
+        <v>313613.59675</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>290570.71705</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>287441.92251</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>299568.78</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>18167.02715</v>
+        <v>24109.29317</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>34022.09021</v>
+        <v>39339.92588</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>41550.51047</v>
+        <v>46382.79644</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>34433.89176999999</v>
+        <v>35397.53502</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>44653.33272</v>
+        <v>59487.32549</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>38809.28312</v>
+        <v>60860.51443</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>57575.18568</v>
+        <v>75105.25805</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>51440.17893</v>
+        <v>56385.15217</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>47666.6508</v>
+        <v>62600.84276</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>75461.43509</v>
+        <v>85485.27991999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>65900.31739</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>115371.22238</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>133513.522</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>12606.19136</v>
+        <v>12900.51788</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>9666.398720000001</v>
+        <v>10761.24464</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>10687.6394</v>
+        <v>12366.13119</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>9535.210859999999</v>
+        <v>9818.226719999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>21872.43477</v>
+        <v>33840.20236</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>27269.76329</v>
+        <v>28283.995</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>26264.47559</v>
+        <v>69623.73822</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>31495.20994</v>
+        <v>102280.86493</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>27366.1206</v>
+        <v>34233.27727</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>137413.18768</v>
+        <v>127348.30598</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>104999.02674</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>98513.84408999998</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>120595.854</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>312.64541</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>412.85165</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>123.3375</v>
@@ -1781,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0</v>
+        <v>10200.96711</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>650.12551</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>0</v>
@@ -1793,19 +1804,24 @@
         <v>154.5621</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>3681.45293</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0</v>
+        <v>6174.289839999999</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>5.896</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,79 +1833,89 @@
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1155.68149</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>685.49257</v>
+        <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>164.3</v>
+        <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>3032.1842</v>
+        <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>769.52737</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>279.7949</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4197.61209</v>
+        <v>5626.613590000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2356.63145</v>
+        <v>2550.82647</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3154.28027</v>
+        <v>3318.21194</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2808.3615</v>
+        <v>3558.86734</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4613.52949</v>
+        <v>4096.678510000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>5428.022199999999</v>
+        <v>5326.932400000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>4491.132809999999</v>
+        <v>14785.09634</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6612.24559</v>
+        <v>22819.4315</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>6002.88912</v>
+        <v>6387.39704</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>19485.12205</v>
+        <v>19445.73539</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>24216.41754</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>24571.14154</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>15880.942</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>706.91723</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>343.64246</v>
+        <v>343.21746</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>18.16541</v>
@@ -1898,16 +1924,16 @@
         <v>0.83</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>238.74617</v>
+        <v>238.58119</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>357.08366</v>
+        <v>355.46738</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>77.7179</v>
+        <v>78.08249000000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1113.05678</v>
+        <v>122.53678</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>50.65493</v>
@@ -1918,128 +1944,148 @@
       <c r="M29" s="48" t="n">
         <v>22005.17695</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>16563.837</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1002.20796</v>
+        <v>19.83256</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>1005.34209</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>965.7924399999999</v>
+        <v>764.5785699999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>337.6745</v>
+        <v>137.04376</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2985.23877</v>
+        <v>2784.60803</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1489.23074</v>
+        <v>1288.6</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>39.22967</v>
+        <v>30.7915</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>153.17563</v>
+        <v>174.30481</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>403.32486</v>
+        <v>29.8421</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>515.87517</v>
+        <v>464.55674</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>669.2477599999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>232.35031</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>336.19</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>269.95825</v>
+        <v>126.58731</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>274.23925</v>
+        <v>44.57876</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>263.19842</v>
+        <v>315.45536</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>264.02362</v>
+        <v>427.40627</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>590.7135800000001</v>
+        <v>542.53588</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>677.50702</v>
+        <v>507.99702</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2637.46248</v>
+        <v>1933.48103</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1529.93852</v>
+        <v>1194.89069</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>545.23618</v>
+        <v>540.3188200000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1676.42763</v>
+        <v>1657.74837</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2639.27457</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2336.76201</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1717.941</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>3312.77763</v>
+        <v>4631.338940000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2334.17009</v>
+        <v>3369.52807</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4688.54891</v>
+        <v>6324.77737</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2197.13642</v>
+        <v>2915.72447</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7995.63768</v>
+        <v>9047.529050000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>6422.965990000001</v>
+        <v>7921.29674</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>12539.27778</v>
+        <v>46100.49278</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>14333.27123</v>
+        <v>70721.62695999999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>12822.14112</v>
+        <v>16354.2247</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>94847.25309</v>
+        <v>78698.77881999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>45118.27106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>38875.34185</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>77063.996</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.80502</v>
@@ -2057,16 +2103,16 @@
         <v>88.45217</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>265.46046</v>
+        <v>265.8788</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>66.53751</v>
+        <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>29.20322</v>
+        <v>19.62107</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>27.91795</v>
@@ -2113,191 +2164,216 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3087.99523</v>
+        <v>1447.85987</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3312.70335</v>
+        <v>2995.23011</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1459.88756</v>
+        <v>1487.17615</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2715.08275</v>
+        <v>2721.9343</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5360.11691</v>
+        <v>6840.85042</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>11944.00065</v>
+        <v>11967.69715</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6413.11744</v>
+        <v>6695.79408</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>7434.660089999999</v>
+        <v>7093.51209</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4480.48697</v>
+        <v>7169.76568</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>15210.8829</v>
+        <v>15229.56998</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>9581.111489999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>10213.27653</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>9027.052</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>6357.794150000001</v>
+        <v>8109.45081</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>5253.13654</v>
+        <v>6135.78283</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>7572.26241</v>
+        <v>9113.320310000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6263.811259999999</v>
+        <v>7512.51462</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>15254.58349</v>
+        <v>19455.09964</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>9051.23374</v>
+        <v>9898.20192</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>13589.2046</v>
+        <v>24303.2835</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>13745.19628</v>
+        <v>33274.80359</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>14652.86813</v>
+        <v>17880.97374</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>100278.64571</v>
+        <v>78353.80136</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>60151.15088</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>53603.27901</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>76773.45299999999</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>142.5781</v>
+        <v>160.67009</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>57.41282</v>
+        <v>64.32183999999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>461.09876</v>
+        <v>456.57599</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>642.44037</v>
+        <v>632.63908</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>403.93212</v>
+        <v>575.39769</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>282.5934099999999</v>
+        <v>613.5605800000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>495.10765</v>
+        <v>550.2075399999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1646.70982</v>
+        <v>1686.30574</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>358.63664</v>
+        <v>926.16526</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>7950.309310000001</v>
+        <v>7910.64809</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>16540.84883</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>16530.67347</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>15592.75</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>748.037</v>
+        <v>609.57933</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>773.63666</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>663.67813</v>
+        <v>669.9410300000001</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>286.37071</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5307.98825</v>
+        <v>5124.51975</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>799.5564899999999</v>
+        <v>780.0291</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>603.8045400000001</v>
+        <v>644.4650800000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>986.01096</v>
+        <v>1132.8293</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>660.47613</v>
+        <v>405.13084</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2222.73302</v>
+        <v>1047.71719</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>3331.31332</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2191.14791</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1478.957</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2.28065</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>91.18785000000001</v>
+        <v>0.56484</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>173.66224</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>43.73787</v>
+        <v>130.82283</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1346.41202</v>
+        <v>1348.93499</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>24.37583</v>
+        <v>29.15837</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>563.27773</v>
+        <v>141.17757</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0.00055</v>
+        <v>1440.85173</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>81.09569</v>
@@ -2306,52 +2382,62 @@
         <v>56.22422</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>41.78837</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>10.58652</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>3837.37532</v>
+        <v>5403.42734</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2157.25172</v>
+        <v>3132.17859</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>4355.11377</v>
+        <v>5946.16562</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2087.8988</v>
+        <v>3180.24054</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5976.63627</v>
+        <v>10449.68192</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6079.422820000001</v>
+        <v>7491.23493</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>9994.085379999999</v>
+        <v>21234.14501</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>10387.27828</v>
+        <v>28393.73397</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>12739.40946</v>
+        <v>15744.31831</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>88320.52056999999</v>
+        <v>67656.62640000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>37563.7669</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>32218.47952</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>56560.027</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>16.64634</v>
@@ -2425,362 +2516,412 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1.634</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1610.87674</v>
+        <v>1916.84706</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2159.2186</v>
+        <v>2150.65201</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1842.04429</v>
+        <v>1790.31021</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3203.32283</v>
+        <v>3282.40078</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2219.59049</v>
+        <v>1956.54095</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1865.28519</v>
+        <v>984.21894</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1920.8793</v>
+        <v>1721.2383</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>725.19667</v>
+        <v>621.0828500000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>811.73645</v>
+        <v>722.74988</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1671.2632</v>
+        <v>1624.99007</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2673.43346</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2652.39159</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3140.085</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>8077.54336</v>
+        <v>8163.59236</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>7513.187510000001</v>
+        <v>8106.910089999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>10209.39495</v>
+        <v>9955.917029999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>9210.728459999998</v>
+        <v>10046.0744</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>12964.86237</v>
+        <v>17513.34382</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>11783.10702</v>
+        <v>14492.67132</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>11712.37931</v>
+        <v>17561.27445</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>13675.56546</v>
+        <v>21806.67568</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>17894.08376</v>
+        <v>28215.67312</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>40561.75165999999</v>
+        <v>37781.10950999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>32966.19668</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>41911.03305</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>38032.864</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>7764.79169</v>
+        <v>7893.319930000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>7310.73978</v>
+        <v>7946.57498</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>9828.305980000001</v>
+        <v>9594.82806</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>8886.411599999999</v>
+        <v>9995.754860000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>12828.0802</v>
+        <v>17378.2658</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>11640.48313</v>
+        <v>14412.10763</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>11590.21175</v>
+        <v>17439.42573</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>13545.04183</v>
+        <v>21710.76693</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>17523.37874</v>
+        <v>27876.11914</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>37796.54470999999</v>
+        <v>37544.43728</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>30893.34609</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>40745.31265</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>36455.519</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>312.75167</v>
+        <v>270.27243</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>202.44773</v>
+        <v>160.33511</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>381.08897</v>
+        <v>361.08897</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>324.31686</v>
+        <v>50.31954</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>136.78217</v>
+        <v>135.07802</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>142.62389</v>
+        <v>80.56369000000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>122.16756</v>
+        <v>121.84872</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>130.52363</v>
+        <v>95.90875</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>370.70502</v>
+        <v>339.55398</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2765.20695</v>
+        <v>236.67223</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2072.85059</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1165.7204</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1577.345</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>16337.881</v>
+        <v>20736.76788</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>30922.16488</v>
+        <v>35858.4776</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>34456.49251</v>
+        <v>39679.69029000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>28494.56291</v>
+        <v>27657.17272</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>38306.32163000001</v>
+        <v>56359.08439</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>45244.70565</v>
+        <v>64753.63619</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>58538.07736</v>
+        <v>102864.43832</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>55514.62712999999</v>
+        <v>103584.53783</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>42485.81951000001</v>
+        <v>50737.47317</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>72034.2254</v>
+        <v>96698.67502999998</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>77781.99656999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>118370.75441</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>139303.059</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2421.51704</v>
+        <v>2662.90664</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2140.27583</v>
+        <v>1952.52466</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3528.10284</v>
+        <v>3720.33567</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3340.72669</v>
+        <v>3186.35355</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>8687.00201</v>
+        <v>15364.03586</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>16917.91525</v>
+        <v>9498.859680000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>9116.606119999999</v>
+        <v>13398.05894</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>10089.39307</v>
+        <v>11614.72604</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>11574.58333</v>
+        <v>10342.90187</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>30436.14929</v>
+        <v>20199.84234</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>18632.01341</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>17383.16941</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>25083.647</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>4.12288</v>
+        <v>124.53404</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>115.0658</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>27.45309</v>
+        <v>15.59135</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>107.43529</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>37.6326</v>
+        <v>37.16065999999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>0.29471</v>
+        <v>0.24422</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1.38012</v>
+        <v>0</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>108.27005</v>
+        <v>111.16749</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>69.83112</v>
+        <v>59.10639</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1263.7082</v>
+        <v>1263.18088</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1798.62661</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1895.50324</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>437.914</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2417.39416</v>
+        <v>2538.3726</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2025.21003</v>
+        <v>1837.45886</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3500.64975</v>
+        <v>3704.74432</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3233.291400000001</v>
+        <v>3078.91826</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8649.369409999999</v>
+        <v>15326.8752</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>16917.62054</v>
+        <v>9498.615460000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>9115.226000000001</v>
+        <v>13398.05894</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>9981.123019999999</v>
+        <v>11503.55855</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>11504.75221</v>
+        <v>10283.79548</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>29172.44109</v>
+        <v>18936.66146</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>16833.3868</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>15487.66617</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>24645.733</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6734.36309</v>
+        <v>7389.513019999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>6602.07967</v>
+        <v>9125.44946</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>69258.87616</v>
+        <v>71324.31084000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>13794.98217</v>
+        <v>14011.53193</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>10728.10882</v>
+        <v>26917.72385</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>34349.26039</v>
+        <v>32424.96804</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>14625.94231</v>
+        <v>16266.19787</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>85783.82686</v>
+        <v>89523.73476000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>16326.92053</v>
+        <v>16140.9228</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>55019.10012</v>
+        <v>53505.58848999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>17193.64324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>16032.72636</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>21034.28</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>5.6479</v>
@@ -2792,7 +2933,7 @@
         <v>144.08755</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>9.113940000000001</v>
+        <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>0</v>
@@ -2807,7 +2948,7 @@
         <v>76.5351</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>218.03716</v>
+        <v>15.08919</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>2.9253</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>151.65279</v>
+        <v>543.52966</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>506.5147</v>
+        <v>171.96576</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4750.04233</v>
+        <v>4520.42563</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>107.89932</v>
+        <v>107.53572</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>681.8799200000001</v>
+        <v>682.40548</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>195.76476</v>
+        <v>204.88353</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>224.60034</v>
+        <v>342.41295</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>231.80089</v>
+        <v>215.75201</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>921.64585</v>
+        <v>210.74041</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3597.15441</v>
+        <v>2768.48408</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1356.64138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1355.38643</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1890.479</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6577.062400000001</v>
+        <v>6840.33546</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4660.812400000001</v>
+        <v>7518.73113</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>64364.74627999999</v>
+        <v>66659.79766</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>13677.96891</v>
+        <v>13903.99621</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>10046.2289</v>
+        <v>26235.31837</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>34153.49563</v>
+        <v>32220.08451</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>14401.34197</v>
+        <v>15923.78492</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>85475.49086999999</v>
+        <v>89231.44765</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>15187.23752</v>
+        <v>15915.0932</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>51421.94571</v>
+        <v>50737.10441</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>15834.07656</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>14674.41463</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>19143.801</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>12025.03495</v>
+        <v>16010.1615</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>26460.36104</v>
+        <v>28685.5528</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-31274.28081</v>
+        <v>-27924.28488</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>18040.30743</v>
+        <v>16831.99434</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>36265.21482</v>
+        <v>44805.3964</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>27813.36051</v>
+        <v>41827.52783</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>53028.74116999999</v>
+        <v>99996.29939</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-20179.80666</v>
+        <v>25675.52911</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>37733.48231</v>
+        <v>44939.45224</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>47451.27457</v>
+        <v>63392.92887999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>79220.36674</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>119721.19746</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>143352.426</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>5934.809449999999</v>
+        <v>5901.08737</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>7669.28103</v>
+        <v>8359.881589999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>8639.69018</v>
+        <v>8978.93506</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>9266.19117</v>
+        <v>8851.275530000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>14348.01683</v>
+        <v>15488.24284</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>15415.55404</v>
+        <v>17475.73689</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>12973.61214</v>
+        <v>16971.83138</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>15275.56509</v>
+        <v>16746.82126</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>16117.01679</v>
+        <v>18182.71407</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>39074.91627</v>
+        <v>37461.49094</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>34359.29839</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>34669.18670000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>39309.315</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>6090.2255</v>
+        <v>10109.07413</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>18791.08001</v>
+        <v>20325.67121</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-39913.97099</v>
+        <v>-36903.21994</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>8774.116259999999</v>
+        <v>7980.718809999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>21917.19799</v>
+        <v>29317.15356</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>12397.80647</v>
+        <v>24351.79094</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>40055.12903</v>
+        <v>83024.46801</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-35455.37175</v>
+        <v>8928.707849999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>21616.46552</v>
+        <v>26756.73817</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>8376.3583</v>
+        <v>25931.43794</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>44861.06834999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>85052.01076</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>104043.111</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>327</v>
+        <v>254</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>407</v>
+        <v>316</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>464</v>
+        <v>371</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>520</v>
+        <v>398</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>552</v>
+        <v>395</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>605</v>
+        <v>442</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>449</v>
+        <v>353</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>364</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>